--- a/spreadsheets/new/GSE107585.0.xlsx
+++ b/spreadsheets/new/GSE107585.0.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geryl/PycharmProjects/load-project/spreadsheets/new/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E28842-CE8C-E94F-AF3C-609AF5D05EA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="27940" windowHeight="15160" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cell_suspension" sheetId="1" r:id="rId1"/>
@@ -17,12 +23,12 @@
     <sheet name="Sequencing_protocol" sheetId="8" r:id="rId8"/>
     <sheet name="Specimen_from_organism" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="1000">
   <si>
     <t>CELL_SUSPENSION.BIOMATERIAL_CORE.BIOMATERIAL_ID.USER_FRIENDLY (Required)</t>
   </si>
@@ -3019,13 +3025,16 @@
   </si>
   <si>
     <t>adult kidney</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3062,6 +3071,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3108,7 +3125,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3140,9 +3157,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3174,6 +3209,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3349,75 +3402,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="73.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="71.7109375" customWidth="1"/>
-    <col min="4" max="4" width="47.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="57.7109375" customWidth="1"/>
-    <col min="11" max="11" width="85.7109375" customWidth="1"/>
-    <col min="12" max="12" width="69.7109375" customWidth="1"/>
-    <col min="13" max="13" width="58.7109375" customWidth="1"/>
-    <col min="14" max="14" width="141.7109375" customWidth="1"/>
-    <col min="15" max="15" width="70.7109375" customWidth="1"/>
-    <col min="16" max="16" width="57.7109375" customWidth="1"/>
-    <col min="17" max="17" width="54.7109375" customWidth="1"/>
-    <col min="18" max="18" width="68.7109375" customWidth="1"/>
-    <col min="19" max="19" width="62.7109375" customWidth="1"/>
-    <col min="20" max="20" width="81.7109375" customWidth="1"/>
-    <col min="21" max="21" width="61.7109375" customWidth="1"/>
-    <col min="22" max="22" width="195.7109375" customWidth="1"/>
-    <col min="23" max="23" width="62.7109375" customWidth="1"/>
-    <col min="24" max="24" width="150.7109375" customWidth="1"/>
-    <col min="25" max="25" width="78.7109375" customWidth="1"/>
-    <col min="26" max="26" width="64.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="163.7109375" customWidth="1"/>
-    <col min="30" max="30" width="58.7109375" customWidth="1"/>
-    <col min="31" max="31" width="141.7109375" customWidth="1"/>
-    <col min="32" max="32" width="52.7109375" customWidth="1"/>
-    <col min="33" max="33" width="63.7109375" customWidth="1"/>
-    <col min="34" max="34" width="59.7109375" customWidth="1"/>
-    <col min="35" max="35" width="108.7109375" customWidth="1"/>
-    <col min="36" max="36" width="108.7109375" customWidth="1"/>
-    <col min="37" max="37" width="69.7109375" customWidth="1"/>
-    <col min="38" max="38" width="58.7109375" customWidth="1"/>
-    <col min="39" max="39" width="141.7109375" customWidth="1"/>
-    <col min="40" max="40" width="117.7109375" customWidth="1"/>
-    <col min="41" max="41" width="80.7109375" customWidth="1"/>
-    <col min="42" max="42" width="73.7109375" customWidth="1"/>
-    <col min="43" max="43" width="71.7109375" customWidth="1"/>
-    <col min="44" max="44" width="32.7109375" customWidth="1"/>
-    <col min="45" max="45" width="67.7109375" customWidth="1"/>
-    <col min="46" max="46" width="41.7109375" customWidth="1"/>
-    <col min="47" max="47" width="84.7109375" customWidth="1"/>
-    <col min="48" max="48" width="104.7109375" customWidth="1"/>
-    <col min="49" max="49" width="104.7109375" customWidth="1"/>
-    <col min="50" max="50" width="104.7109375" customWidth="1"/>
-    <col min="51" max="51" width="88.7109375" customWidth="1"/>
-    <col min="52" max="52" width="69.7109375" customWidth="1"/>
-    <col min="53" max="53" width="58.7109375" customWidth="1"/>
-    <col min="54" max="54" width="141.7109375" customWidth="1"/>
-    <col min="55" max="55" width="67.7109375" customWidth="1"/>
-    <col min="56" max="56" width="58.7109375" customWidth="1"/>
-    <col min="57" max="57" width="141.7109375" customWidth="1"/>
-    <col min="58" max="58" width="79.7109375" customWidth="1"/>
-    <col min="59" max="59" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="73.6640625" customWidth="1"/>
+    <col min="2" max="3" width="71.6640625" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="57.6640625" customWidth="1"/>
+    <col min="11" max="11" width="85.6640625" customWidth="1"/>
+    <col min="12" max="12" width="69.6640625" customWidth="1"/>
+    <col min="13" max="13" width="58.6640625" customWidth="1"/>
+    <col min="14" max="14" width="141.6640625" customWidth="1"/>
+    <col min="15" max="15" width="70.6640625" customWidth="1"/>
+    <col min="16" max="16" width="57.6640625" customWidth="1"/>
+    <col min="17" max="17" width="54.6640625" customWidth="1"/>
+    <col min="18" max="18" width="68.6640625" customWidth="1"/>
+    <col min="19" max="19" width="62.6640625" customWidth="1"/>
+    <col min="20" max="20" width="81.6640625" customWidth="1"/>
+    <col min="21" max="21" width="61.6640625" customWidth="1"/>
+    <col min="22" max="22" width="195.6640625" customWidth="1"/>
+    <col min="23" max="23" width="62.6640625" customWidth="1"/>
+    <col min="24" max="24" width="150.6640625" customWidth="1"/>
+    <col min="25" max="25" width="78.6640625" customWidth="1"/>
+    <col min="26" max="26" width="64.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="163.6640625" customWidth="1"/>
+    <col min="30" max="30" width="58.6640625" customWidth="1"/>
+    <col min="31" max="31" width="141.6640625" customWidth="1"/>
+    <col min="32" max="32" width="52.6640625" customWidth="1"/>
+    <col min="33" max="33" width="63.6640625" customWidth="1"/>
+    <col min="34" max="34" width="59.6640625" customWidth="1"/>
+    <col min="35" max="36" width="108.6640625" customWidth="1"/>
+    <col min="37" max="37" width="69.6640625" customWidth="1"/>
+    <col min="38" max="38" width="58.6640625" customWidth="1"/>
+    <col min="39" max="39" width="141.6640625" customWidth="1"/>
+    <col min="40" max="40" width="117.6640625" customWidth="1"/>
+    <col min="41" max="41" width="80.6640625" customWidth="1"/>
+    <col min="42" max="42" width="73.6640625" customWidth="1"/>
+    <col min="43" max="43" width="71.6640625" customWidth="1"/>
+    <col min="44" max="44" width="32.6640625" customWidth="1"/>
+    <col min="45" max="45" width="67.6640625" customWidth="1"/>
+    <col min="46" max="46" width="41.6640625" customWidth="1"/>
+    <col min="47" max="47" width="84.6640625" customWidth="1"/>
+    <col min="48" max="50" width="104.6640625" customWidth="1"/>
+    <col min="51" max="51" width="88.6640625" customWidth="1"/>
+    <col min="52" max="52" width="69.6640625" customWidth="1"/>
+    <col min="53" max="53" width="58.6640625" customWidth="1"/>
+    <col min="54" max="54" width="141.6640625" customWidth="1"/>
+    <col min="55" max="55" width="67.6640625" customWidth="1"/>
+    <col min="56" max="56" width="58.6640625" customWidth="1"/>
+    <col min="57" max="57" width="141.6640625" customWidth="1"/>
+    <col min="58" max="58" width="79.6640625" customWidth="1"/>
+    <col min="59" max="59" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3596,7 +3645,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:59">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -3775,7 +3824,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:59">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -3933,7 +3982,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:59">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>148</v>
       </c>
@@ -4112,12 +4161,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:59">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:59">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>208</v>
       </c>
@@ -4140,7 +4189,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:59">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>214</v>
       </c>
@@ -4163,7 +4212,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="8" spans="1:59">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>218</v>
       </c>
@@ -4186,7 +4235,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="9" spans="1:59">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>222</v>
       </c>
@@ -4209,7 +4258,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:59">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>226</v>
       </c>
@@ -4232,7 +4281,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="1:59">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>230</v>
       </c>
@@ -4255,7 +4304,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="12" spans="1:59">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>234</v>
       </c>
@@ -4284,93 +4333,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BY12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="72.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="70.7109375" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="46.7109375" customWidth="1"/>
-    <col min="11" max="11" width="103.7109375" customWidth="1"/>
-    <col min="12" max="12" width="58.7109375" customWidth="1"/>
-    <col min="13" max="13" width="141.7109375" customWidth="1"/>
-    <col min="14" max="14" width="42.7109375" customWidth="1"/>
-    <col min="15" max="15" width="58.7109375" customWidth="1"/>
-    <col min="16" max="16" width="141.7109375" customWidth="1"/>
-    <col min="17" max="17" width="62.7109375" customWidth="1"/>
-    <col min="18" max="18" width="58.7109375" customWidth="1"/>
-    <col min="19" max="19" width="141.7109375" customWidth="1"/>
-    <col min="20" max="20" width="65.7109375" customWidth="1"/>
-    <col min="21" max="21" width="221.7109375" customWidth="1"/>
-    <col min="22" max="22" width="106.7109375" customWidth="1"/>
-    <col min="23" max="23" width="69.7109375" customWidth="1"/>
-    <col min="24" max="24" width="58.7109375" customWidth="1"/>
-    <col min="25" max="25" width="141.7109375" customWidth="1"/>
-    <col min="26" max="26" width="77.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="82.7109375" customWidth="1"/>
-    <col min="30" max="30" width="58.7109375" customWidth="1"/>
-    <col min="31" max="31" width="141.7109375" customWidth="1"/>
-    <col min="32" max="32" width="134.7109375" customWidth="1"/>
-    <col min="33" max="33" width="90.7109375" customWidth="1"/>
-    <col min="34" max="34" width="52.7109375" customWidth="1"/>
-    <col min="35" max="35" width="143.7109375" customWidth="1"/>
-    <col min="36" max="36" width="136.7109375" customWidth="1"/>
-    <col min="37" max="37" width="147.7109375" customWidth="1"/>
-    <col min="38" max="38" width="155.7109375" customWidth="1"/>
-    <col min="39" max="39" width="172.7109375" customWidth="1"/>
-    <col min="40" max="40" width="129.7109375" customWidth="1"/>
-    <col min="41" max="41" width="137.7109375" customWidth="1"/>
-    <col min="42" max="42" width="74.7109375" customWidth="1"/>
-    <col min="43" max="43" width="89.7109375" customWidth="1"/>
-    <col min="44" max="44" width="174.7109375" customWidth="1"/>
-    <col min="45" max="45" width="154.7109375" customWidth="1"/>
-    <col min="46" max="46" width="69.7109375" customWidth="1"/>
-    <col min="47" max="47" width="58.7109375" customWidth="1"/>
-    <col min="48" max="48" width="141.7109375" customWidth="1"/>
-    <col min="49" max="49" width="109.7109375" customWidth="1"/>
-    <col min="50" max="50" width="69.7109375" customWidth="1"/>
-    <col min="51" max="51" width="58.7109375" customWidth="1"/>
-    <col min="52" max="52" width="141.7109375" customWidth="1"/>
-    <col min="53" max="53" width="106.7109375" customWidth="1"/>
-    <col min="54" max="54" width="69.7109375" customWidth="1"/>
-    <col min="55" max="55" width="58.7109375" customWidth="1"/>
-    <col min="56" max="56" width="141.7109375" customWidth="1"/>
-    <col min="57" max="57" width="108.7109375" customWidth="1"/>
-    <col min="58" max="58" width="69.7109375" customWidth="1"/>
-    <col min="59" max="59" width="58.7109375" customWidth="1"/>
-    <col min="60" max="60" width="141.7109375" customWidth="1"/>
-    <col min="61" max="61" width="117.7109375" customWidth="1"/>
-    <col min="62" max="62" width="32.7109375" customWidth="1"/>
-    <col min="63" max="63" width="67.7109375" customWidth="1"/>
-    <col min="64" max="64" width="41.7109375" customWidth="1"/>
-    <col min="65" max="65" width="84.7109375" customWidth="1"/>
-    <col min="66" max="66" width="104.7109375" customWidth="1"/>
-    <col min="67" max="67" width="104.7109375" customWidth="1"/>
-    <col min="68" max="68" width="104.7109375" customWidth="1"/>
-    <col min="69" max="69" width="88.7109375" customWidth="1"/>
-    <col min="70" max="70" width="69.7109375" customWidth="1"/>
-    <col min="71" max="71" width="58.7109375" customWidth="1"/>
-    <col min="72" max="72" width="141.7109375" customWidth="1"/>
-    <col min="73" max="73" width="67.7109375" customWidth="1"/>
-    <col min="74" max="74" width="58.7109375" customWidth="1"/>
-    <col min="75" max="75" width="141.7109375" customWidth="1"/>
-    <col min="76" max="76" width="79.7109375" customWidth="1"/>
-    <col min="77" max="77" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="72.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="70.6640625" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="46.6640625" customWidth="1"/>
+    <col min="11" max="11" width="103.6640625" customWidth="1"/>
+    <col min="12" max="12" width="58.6640625" customWidth="1"/>
+    <col min="13" max="13" width="141.6640625" customWidth="1"/>
+    <col min="14" max="14" width="42.6640625" customWidth="1"/>
+    <col min="15" max="15" width="58.6640625" customWidth="1"/>
+    <col min="16" max="16" width="141.6640625" customWidth="1"/>
+    <col min="17" max="17" width="62.6640625" customWidth="1"/>
+    <col min="18" max="18" width="58.6640625" customWidth="1"/>
+    <col min="19" max="19" width="141.6640625" customWidth="1"/>
+    <col min="20" max="20" width="65.6640625" customWidth="1"/>
+    <col min="21" max="21" width="221.6640625" customWidth="1"/>
+    <col min="22" max="22" width="106.6640625" customWidth="1"/>
+    <col min="23" max="23" width="69.6640625" customWidth="1"/>
+    <col min="24" max="24" width="58.6640625" customWidth="1"/>
+    <col min="25" max="25" width="141.6640625" customWidth="1"/>
+    <col min="26" max="26" width="77.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="82.6640625" customWidth="1"/>
+    <col min="30" max="30" width="58.6640625" customWidth="1"/>
+    <col min="31" max="31" width="141.6640625" customWidth="1"/>
+    <col min="32" max="32" width="134.6640625" customWidth="1"/>
+    <col min="33" max="33" width="90.6640625" customWidth="1"/>
+    <col min="34" max="34" width="52.6640625" customWidth="1"/>
+    <col min="35" max="35" width="143.6640625" customWidth="1"/>
+    <col min="36" max="36" width="136.6640625" customWidth="1"/>
+    <col min="37" max="37" width="147.6640625" customWidth="1"/>
+    <col min="38" max="38" width="155.6640625" customWidth="1"/>
+    <col min="39" max="39" width="172.6640625" customWidth="1"/>
+    <col min="40" max="40" width="129.6640625" customWidth="1"/>
+    <col min="41" max="41" width="137.6640625" customWidth="1"/>
+    <col min="42" max="42" width="74.6640625" customWidth="1"/>
+    <col min="43" max="43" width="89.6640625" customWidth="1"/>
+    <col min="44" max="44" width="174.6640625" customWidth="1"/>
+    <col min="45" max="45" width="154.6640625" customWidth="1"/>
+    <col min="46" max="46" width="69.6640625" customWidth="1"/>
+    <col min="47" max="47" width="58.6640625" customWidth="1"/>
+    <col min="48" max="48" width="141.6640625" customWidth="1"/>
+    <col min="49" max="49" width="109.6640625" customWidth="1"/>
+    <col min="50" max="50" width="69.6640625" customWidth="1"/>
+    <col min="51" max="51" width="58.6640625" customWidth="1"/>
+    <col min="52" max="52" width="141.6640625" customWidth="1"/>
+    <col min="53" max="53" width="106.6640625" customWidth="1"/>
+    <col min="54" max="54" width="69.6640625" customWidth="1"/>
+    <col min="55" max="55" width="58.6640625" customWidth="1"/>
+    <col min="56" max="56" width="141.6640625" customWidth="1"/>
+    <col min="57" max="57" width="108.6640625" customWidth="1"/>
+    <col min="58" max="58" width="69.6640625" customWidth="1"/>
+    <col min="59" max="59" width="58.6640625" customWidth="1"/>
+    <col min="60" max="60" width="141.6640625" customWidth="1"/>
+    <col min="61" max="61" width="117.6640625" customWidth="1"/>
+    <col min="62" max="62" width="32.6640625" customWidth="1"/>
+    <col min="63" max="63" width="67.6640625" customWidth="1"/>
+    <col min="64" max="64" width="41.6640625" customWidth="1"/>
+    <col min="65" max="65" width="84.6640625" customWidth="1"/>
+    <col min="66" max="68" width="104.6640625" customWidth="1"/>
+    <col min="69" max="69" width="88.6640625" customWidth="1"/>
+    <col min="70" max="70" width="69.6640625" customWidth="1"/>
+    <col min="71" max="71" width="58.6640625" customWidth="1"/>
+    <col min="72" max="72" width="141.6640625" customWidth="1"/>
+    <col min="73" max="73" width="67.6640625" customWidth="1"/>
+    <col min="74" max="74" width="58.6640625" customWidth="1"/>
+    <col min="75" max="75" width="141.6640625" customWidth="1"/>
+    <col min="76" max="76" width="79.6640625" customWidth="1"/>
+    <col min="77" max="77" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>238</v>
       </c>
@@ -4603,7 +4650,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:77">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -4836,7 +4883,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:77">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -5051,7 +5098,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:77">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>342</v>
       </c>
@@ -5284,12 +5331,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:77">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:77">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>403</v>
       </c>
@@ -5312,7 +5359,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="7" spans="1:77">
+    <row r="7" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>409</v>
       </c>
@@ -5335,7 +5382,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="8" spans="1:77">
+    <row r="8" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>410</v>
       </c>
@@ -5358,7 +5405,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="9" spans="1:77">
+    <row r="9" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>411</v>
       </c>
@@ -5381,7 +5428,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="10" spans="1:77">
+    <row r="10" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>412</v>
       </c>
@@ -5404,7 +5451,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="11" spans="1:77">
+    <row r="11" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>414</v>
       </c>
@@ -5427,7 +5474,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="12" spans="1:77">
+    <row r="12" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>416</v>
       </c>
@@ -5456,67 +5503,65 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AY6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="118.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="71.7109375" customWidth="1"/>
-    <col min="8" max="8" width="57.7109375" customWidth="1"/>
-    <col min="9" max="9" width="57.7109375" customWidth="1"/>
-    <col min="10" max="10" width="80.7109375" customWidth="1"/>
-    <col min="11" max="11" width="84.7109375" customWidth="1"/>
-    <col min="12" max="12" width="66.7109375" customWidth="1"/>
-    <col min="13" max="13" width="141.7109375" customWidth="1"/>
-    <col min="14" max="14" width="102.7109375" customWidth="1"/>
-    <col min="15" max="15" width="67.7109375" customWidth="1"/>
-    <col min="16" max="16" width="66.7109375" customWidth="1"/>
-    <col min="17" max="17" width="141.7109375" customWidth="1"/>
-    <col min="18" max="18" width="90.7109375" customWidth="1"/>
-    <col min="19" max="19" width="69.7109375" customWidth="1"/>
-    <col min="20" max="20" width="67.7109375" customWidth="1"/>
-    <col min="21" max="21" width="65.7109375" customWidth="1"/>
-    <col min="22" max="22" width="111.7109375" customWidth="1"/>
-    <col min="23" max="23" width="91.7109375" customWidth="1"/>
-    <col min="24" max="24" width="90.7109375" customWidth="1"/>
-    <col min="25" max="25" width="72.7109375" customWidth="1"/>
-    <col min="26" max="26" width="70.7109375" customWidth="1"/>
-    <col min="27" max="27" width="68.7109375" customWidth="1"/>
-    <col min="28" max="28" width="111.7109375" customWidth="1"/>
-    <col min="29" max="29" width="91.7109375" customWidth="1"/>
-    <col min="30" max="30" width="161.7109375" customWidth="1"/>
-    <col min="31" max="31" width="52.7109375" customWidth="1"/>
-    <col min="32" max="32" width="320.7109375" customWidth="1"/>
-    <col min="33" max="33" width="90.7109375" customWidth="1"/>
-    <col min="34" max="34" width="57.7109375" customWidth="1"/>
-    <col min="35" max="35" width="55.7109375" customWidth="1"/>
-    <col min="36" max="36" width="53.7109375" customWidth="1"/>
-    <col min="37" max="37" width="111.7109375" customWidth="1"/>
-    <col min="38" max="38" width="91.7109375" customWidth="1"/>
-    <col min="39" max="39" width="47.7109375" customWidth="1"/>
-    <col min="40" max="40" width="71.7109375" customWidth="1"/>
-    <col min="41" max="41" width="56.7109375" customWidth="1"/>
-    <col min="42" max="42" width="56.7109375" customWidth="1"/>
-    <col min="43" max="43" width="80.7109375" customWidth="1"/>
-    <col min="44" max="44" width="67.7109375" customWidth="1"/>
-    <col min="45" max="45" width="70.7109375" customWidth="1"/>
-    <col min="46" max="46" width="141.7109375" customWidth="1"/>
-    <col min="47" max="47" width="68.7109375" customWidth="1"/>
-    <col min="48" max="48" width="72.7109375" customWidth="1"/>
-    <col min="49" max="49" width="141.7109375" customWidth="1"/>
-    <col min="50" max="50" width="56.7109375" customWidth="1"/>
-    <col min="51" max="51" width="74.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="118.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="71.6640625" customWidth="1"/>
+    <col min="8" max="9" width="57.6640625" customWidth="1"/>
+    <col min="10" max="10" width="80.6640625" customWidth="1"/>
+    <col min="11" max="11" width="84.6640625" customWidth="1"/>
+    <col min="12" max="12" width="66.6640625" customWidth="1"/>
+    <col min="13" max="13" width="141.6640625" customWidth="1"/>
+    <col min="14" max="14" width="102.6640625" customWidth="1"/>
+    <col min="15" max="15" width="67.6640625" customWidth="1"/>
+    <col min="16" max="16" width="66.6640625" customWidth="1"/>
+    <col min="17" max="17" width="141.6640625" customWidth="1"/>
+    <col min="18" max="18" width="90.6640625" customWidth="1"/>
+    <col min="19" max="19" width="69.6640625" customWidth="1"/>
+    <col min="20" max="20" width="67.6640625" customWidth="1"/>
+    <col min="21" max="21" width="65.6640625" customWidth="1"/>
+    <col min="22" max="22" width="111.6640625" customWidth="1"/>
+    <col min="23" max="23" width="91.6640625" customWidth="1"/>
+    <col min="24" max="24" width="90.6640625" customWidth="1"/>
+    <col min="25" max="25" width="72.6640625" customWidth="1"/>
+    <col min="26" max="26" width="70.6640625" customWidth="1"/>
+    <col min="27" max="27" width="68.6640625" customWidth="1"/>
+    <col min="28" max="28" width="111.6640625" customWidth="1"/>
+    <col min="29" max="29" width="91.6640625" customWidth="1"/>
+    <col min="30" max="30" width="161.6640625" customWidth="1"/>
+    <col min="31" max="31" width="52.6640625" customWidth="1"/>
+    <col min="32" max="32" width="320.6640625" customWidth="1"/>
+    <col min="33" max="33" width="90.6640625" customWidth="1"/>
+    <col min="34" max="34" width="57.6640625" customWidth="1"/>
+    <col min="35" max="35" width="55.6640625" customWidth="1"/>
+    <col min="36" max="36" width="53.6640625" customWidth="1"/>
+    <col min="37" max="37" width="111.6640625" customWidth="1"/>
+    <col min="38" max="38" width="91.6640625" customWidth="1"/>
+    <col min="39" max="39" width="47.6640625" customWidth="1"/>
+    <col min="40" max="40" width="71.6640625" customWidth="1"/>
+    <col min="41" max="42" width="56.6640625" customWidth="1"/>
+    <col min="43" max="43" width="80.6640625" customWidth="1"/>
+    <col min="44" max="44" width="67.6640625" customWidth="1"/>
+    <col min="45" max="45" width="70.6640625" customWidth="1"/>
+    <col min="46" max="46" width="141.6640625" customWidth="1"/>
+    <col min="47" max="47" width="68.6640625" customWidth="1"/>
+    <col min="48" max="48" width="72.6640625" customWidth="1"/>
+    <col min="49" max="49" width="141.6640625" customWidth="1"/>
+    <col min="50" max="50" width="56.6640625" customWidth="1"/>
+    <col min="51" max="51" width="74.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>418</v>
       </c>
@@ -5671,7 +5716,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -5826,7 +5871,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -5975,7 +6020,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>519</v>
       </c>
@@ -6130,12 +6175,12 @@
         <v>569</v>
       </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>570</v>
       </c>
@@ -6152,25 +6197,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="162.7109375" customWidth="1"/>
-    <col min="2" max="2" width="153.7109375" customWidth="1"/>
-    <col min="3" max="3" width="898.7109375" customWidth="1"/>
-    <col min="4" max="4" width="135.7109375" customWidth="1"/>
-    <col min="5" max="5" width="171.7109375" customWidth="1"/>
-    <col min="6" max="6" width="99.7109375" customWidth="1"/>
-    <col min="7" max="7" width="99.7109375" customWidth="1"/>
-    <col min="8" max="8" width="174.7109375" customWidth="1"/>
-    <col min="9" max="9" width="75.7109375" customWidth="1"/>
+    <col min="1" max="1" width="162.6640625" customWidth="1"/>
+    <col min="2" max="2" width="153.6640625" customWidth="1"/>
+    <col min="3" max="3" width="898.6640625" customWidth="1"/>
+    <col min="4" max="4" width="135.6640625" customWidth="1"/>
+    <col min="5" max="5" width="171.6640625" customWidth="1"/>
+    <col min="6" max="7" width="99.6640625" customWidth="1"/>
+    <col min="8" max="8" width="174.6640625" customWidth="1"/>
+    <col min="9" max="9" width="75.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>573</v>
       </c>
@@ -6199,7 +6243,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>582</v>
       </c>
@@ -6228,7 +6272,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>591</v>
       </c>
@@ -6257,7 +6301,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>600</v>
       </c>
@@ -6286,12 +6330,12 @@
         <v>608</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>609</v>
       </c>
@@ -6317,28 +6361,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="103.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="57.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-    <col min="5" max="5" width="75.7109375" customWidth="1"/>
-    <col min="6" max="6" width="127.7109375" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" customWidth="1"/>
-    <col min="8" max="8" width="70.7109375" customWidth="1"/>
-    <col min="9" max="9" width="64.7109375" customWidth="1"/>
-    <col min="10" max="10" width="58.7109375" customWidth="1"/>
-    <col min="11" max="11" width="141.7109375" customWidth="1"/>
-    <col min="12" max="12" width="51.7109375" customWidth="1"/>
+    <col min="1" max="1" width="103.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="3" max="3" width="57.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="5" max="5" width="75.6640625" customWidth="1"/>
+    <col min="6" max="6" width="127.6640625" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" customWidth="1"/>
+    <col min="8" max="8" width="70.6640625" customWidth="1"/>
+    <col min="9" max="9" width="64.6640625" customWidth="1"/>
+    <col min="10" max="10" width="58.6640625" customWidth="1"/>
+    <col min="11" max="11" width="141.6640625" customWidth="1"/>
+    <col min="12" max="12" width="51.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>615</v>
       </c>
@@ -6376,7 +6420,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>627</v>
       </c>
@@ -6414,7 +6458,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>637</v>
       </c>
@@ -6452,7 +6496,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>648</v>
       </c>
@@ -6490,12 +6534,12 @@
         <v>659</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>660</v>
       </c>
@@ -6512,42 +6556,42 @@
         <v>664</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>672</v>
       </c>
@@ -6558,21 +6602,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="67.7109375" customWidth="1"/>
-    <col min="2" max="2" width="55.7109375" customWidth="1"/>
-    <col min="3" max="3" width="68.7109375" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" customWidth="1"/>
-    <col min="5" max="5" width="68.7109375" customWidth="1"/>
+    <col min="1" max="1" width="67.6640625" customWidth="1"/>
+    <col min="2" max="2" width="55.6640625" customWidth="1"/>
+    <col min="3" max="3" width="68.6640625" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" customWidth="1"/>
+    <col min="5" max="5" width="68.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>673</v>
       </c>
@@ -6589,7 +6633,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>677</v>
       </c>
@@ -6606,7 +6650,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>682</v>
       </c>
@@ -6623,7 +6667,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>687</v>
       </c>
@@ -6640,12 +6684,12 @@
         <v>691</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>692</v>
       </c>
@@ -6656,46 +6700,44 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AD75"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="85.7109375" customWidth="1"/>
-    <col min="2" max="2" width="94.7109375" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" customWidth="1"/>
-    <col min="4" max="4" width="58.7109375" customWidth="1"/>
-    <col min="5" max="5" width="141.7109375" customWidth="1"/>
-    <col min="6" max="6" width="47.7109375" customWidth="1"/>
-    <col min="7" max="7" width="117.7109375" customWidth="1"/>
-    <col min="8" max="8" width="44.7109375" customWidth="1"/>
-    <col min="9" max="9" width="61.7109375" customWidth="1"/>
-    <col min="10" max="10" width="168.7109375" customWidth="1"/>
-    <col min="11" max="11" width="156.7109375" customWidth="1"/>
-    <col min="12" max="12" width="73.7109375" customWidth="1"/>
-    <col min="13" max="13" width="80.7109375" customWidth="1"/>
-    <col min="14" max="14" width="71.7109375" customWidth="1"/>
-    <col min="15" max="15" width="32.7109375" customWidth="1"/>
-    <col min="16" max="16" width="67.7109375" customWidth="1"/>
-    <col min="17" max="17" width="41.7109375" customWidth="1"/>
-    <col min="18" max="18" width="84.7109375" customWidth="1"/>
-    <col min="19" max="19" width="104.7109375" customWidth="1"/>
-    <col min="20" max="20" width="104.7109375" customWidth="1"/>
-    <col min="21" max="21" width="104.7109375" customWidth="1"/>
-    <col min="22" max="22" width="88.7109375" customWidth="1"/>
-    <col min="23" max="23" width="69.7109375" customWidth="1"/>
-    <col min="24" max="24" width="58.7109375" customWidth="1"/>
-    <col min="25" max="25" width="141.7109375" customWidth="1"/>
-    <col min="26" max="26" width="67.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="79.7109375" customWidth="1"/>
-    <col min="30" max="30" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="85.6640625" customWidth="1"/>
+    <col min="2" max="2" width="94.6640625" customWidth="1"/>
+    <col min="3" max="3" width="53.6640625" customWidth="1"/>
+    <col min="4" max="4" width="58.6640625" customWidth="1"/>
+    <col min="5" max="5" width="141.6640625" customWidth="1"/>
+    <col min="6" max="6" width="47.6640625" customWidth="1"/>
+    <col min="7" max="7" width="117.6640625" customWidth="1"/>
+    <col min="8" max="8" width="44.6640625" customWidth="1"/>
+    <col min="9" max="9" width="61.6640625" customWidth="1"/>
+    <col min="10" max="10" width="168.6640625" customWidth="1"/>
+    <col min="11" max="11" width="156.6640625" customWidth="1"/>
+    <col min="12" max="12" width="73.6640625" customWidth="1"/>
+    <col min="13" max="13" width="80.6640625" customWidth="1"/>
+    <col min="14" max="14" width="71.6640625" customWidth="1"/>
+    <col min="15" max="15" width="32.6640625" customWidth="1"/>
+    <col min="16" max="16" width="67.6640625" customWidth="1"/>
+    <col min="17" max="17" width="41.6640625" customWidth="1"/>
+    <col min="18" max="18" width="84.6640625" customWidth="1"/>
+    <col min="19" max="21" width="104.6640625" customWidth="1"/>
+    <col min="22" max="22" width="88.6640625" customWidth="1"/>
+    <col min="23" max="23" width="69.6640625" customWidth="1"/>
+    <col min="24" max="24" width="58.6640625" customWidth="1"/>
+    <col min="25" max="25" width="141.6640625" customWidth="1"/>
+    <col min="26" max="26" width="67.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="79.6640625" customWidth="1"/>
+    <col min="30" max="30" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>693</v>
       </c>
@@ -6787,7 +6829,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>705</v>
       </c>
@@ -6879,7 +6921,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>714</v>
       </c>
@@ -6959,7 +7001,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>724</v>
       </c>
@@ -7051,12 +7093,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>736</v>
       </c>
@@ -7079,7 +7121,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>741</v>
       </c>
@@ -7102,7 +7144,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>743</v>
       </c>
@@ -7125,7 +7167,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>745</v>
       </c>
@@ -7148,7 +7190,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>746</v>
       </c>
@@ -7171,7 +7213,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>748</v>
       </c>
@@ -7194,7 +7236,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>749</v>
       </c>
@@ -7217,7 +7259,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>751</v>
       </c>
@@ -7240,7 +7282,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>752</v>
       </c>
@@ -7263,7 +7305,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>754</v>
       </c>
@@ -7286,7 +7328,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>755</v>
       </c>
@@ -7309,7 +7351,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>757</v>
       </c>
@@ -7332,7 +7374,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>758</v>
       </c>
@@ -7355,7 +7397,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>760</v>
       </c>
@@ -7378,7 +7420,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>761</v>
       </c>
@@ -7401,7 +7443,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>763</v>
       </c>
@@ -7424,7 +7466,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>764</v>
       </c>
@@ -7447,7 +7489,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>766</v>
       </c>
@@ -7470,7 +7512,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>767</v>
       </c>
@@ -7493,7 +7535,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>769</v>
       </c>
@@ -7516,7 +7558,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>770</v>
       </c>
@@ -7539,7 +7581,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>772</v>
       </c>
@@ -7562,7 +7604,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>773</v>
       </c>
@@ -7585,7 +7627,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>775</v>
       </c>
@@ -7608,7 +7650,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>776</v>
       </c>
@@ -7631,7 +7673,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>778</v>
       </c>
@@ -7654,7 +7696,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>779</v>
       </c>
@@ -7677,7 +7719,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>781</v>
       </c>
@@ -7700,7 +7742,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>782</v>
       </c>
@@ -7723,7 +7765,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>784</v>
       </c>
@@ -7746,7 +7788,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>785</v>
       </c>
@@ -7769,7 +7811,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>787</v>
       </c>
@@ -7792,7 +7834,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>788</v>
       </c>
@@ -7815,7 +7857,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>790</v>
       </c>
@@ -7838,7 +7880,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>791</v>
       </c>
@@ -7861,7 +7903,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>793</v>
       </c>
@@ -7884,7 +7926,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>794</v>
       </c>
@@ -7907,7 +7949,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>796</v>
       </c>
@@ -7930,7 +7972,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>797</v>
       </c>
@@ -7953,7 +7995,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>799</v>
       </c>
@@ -7976,7 +8018,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>800</v>
       </c>
@@ -7999,7 +8041,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>802</v>
       </c>
@@ -8022,7 +8064,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>803</v>
       </c>
@@ -8045,7 +8087,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>805</v>
       </c>
@@ -8068,7 +8110,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>806</v>
       </c>
@@ -8091,7 +8133,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>808</v>
       </c>
@@ -8114,7 +8156,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>809</v>
       </c>
@@ -8137,7 +8179,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>811</v>
       </c>
@@ -8160,7 +8202,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>812</v>
       </c>
@@ -8183,7 +8225,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>814</v>
       </c>
@@ -8206,7 +8248,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>815</v>
       </c>
@@ -8229,7 +8271,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>817</v>
       </c>
@@ -8252,7 +8294,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>818</v>
       </c>
@@ -8275,7 +8317,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>820</v>
       </c>
@@ -8298,7 +8340,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>821</v>
       </c>
@@ -8321,7 +8363,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>823</v>
       </c>
@@ -8344,7 +8386,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>824</v>
       </c>
@@ -8367,7 +8409,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>826</v>
       </c>
@@ -8390,7 +8432,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>827</v>
       </c>
@@ -8413,7 +8455,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>829</v>
       </c>
@@ -8436,7 +8478,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>830</v>
       </c>
@@ -8459,7 +8501,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>832</v>
       </c>
@@ -8482,7 +8524,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>833</v>
       </c>
@@ -8505,7 +8547,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>835</v>
       </c>
@@ -8528,7 +8570,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>836</v>
       </c>
@@ -8551,7 +8593,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>838</v>
       </c>
@@ -8574,7 +8616,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>839</v>
       </c>
@@ -8597,7 +8639,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>841</v>
       </c>
@@ -8620,7 +8662,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>842</v>
       </c>
@@ -8643,7 +8685,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>844</v>
       </c>
@@ -8672,34 +8714,36 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" customWidth="1"/>
-    <col min="3" max="3" width="118.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="70.7109375" customWidth="1"/>
-    <col min="8" max="8" width="59.7109375" customWidth="1"/>
-    <col min="9" max="9" width="141.7109375" customWidth="1"/>
-    <col min="10" max="10" width="59.7109375" customWidth="1"/>
-    <col min="11" max="11" width="76.7109375" customWidth="1"/>
-    <col min="12" max="12" width="91.7109375" customWidth="1"/>
-    <col min="13" max="13" width="58.7109375" customWidth="1"/>
-    <col min="14" max="14" width="141.7109375" customWidth="1"/>
-    <col min="15" max="15" width="62.7109375" customWidth="1"/>
-    <col min="16" max="16" width="50.7109375" customWidth="1"/>
-    <col min="17" max="17" width="56.7109375" customWidth="1"/>
-    <col min="18" max="18" width="99.7109375" customWidth="1"/>
+    <col min="1" max="1" width="71.6640625" customWidth="1"/>
+    <col min="2" max="2" width="62.6640625" customWidth="1"/>
+    <col min="3" max="3" width="118.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="70.6640625" customWidth="1"/>
+    <col min="8" max="8" width="59.6640625" customWidth="1"/>
+    <col min="9" max="9" width="141.6640625" customWidth="1"/>
+    <col min="10" max="10" width="59.6640625" customWidth="1"/>
+    <col min="11" max="11" width="76.6640625" customWidth="1"/>
+    <col min="12" max="12" width="91.6640625" customWidth="1"/>
+    <col min="13" max="13" width="58.6640625" customWidth="1"/>
+    <col min="14" max="14" width="141.6640625" customWidth="1"/>
+    <col min="15" max="15" width="62.6640625" customWidth="1"/>
+    <col min="16" max="16" width="50.6640625" customWidth="1"/>
+    <col min="17" max="17" width="56.6640625" customWidth="1"/>
+    <col min="18" max="18" width="99.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>704</v>
       </c>
@@ -8755,7 +8799,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -8811,7 +8855,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -8861,7 +8905,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>735</v>
       </c>
@@ -8917,12 +8961,12 @@
         <v>890</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>740</v>
       </c>
@@ -8931,6 +8975,9 @@
       </c>
       <c r="G6" t="s">
         <v>891</v>
+      </c>
+      <c r="K6" t="s">
+        <v>999</v>
       </c>
     </row>
   </sheetData>
@@ -8939,76 +8986,73 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:BH12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="78.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="62.7109375" customWidth="1"/>
-    <col min="11" max="11" width="58.7109375" customWidth="1"/>
-    <col min="12" max="12" width="141.7109375" customWidth="1"/>
-    <col min="13" max="13" width="69.7109375" customWidth="1"/>
-    <col min="14" max="14" width="58.7109375" customWidth="1"/>
-    <col min="15" max="15" width="141.7109375" customWidth="1"/>
-    <col min="16" max="16" width="96.7109375" customWidth="1"/>
-    <col min="17" max="17" width="58.7109375" customWidth="1"/>
-    <col min="18" max="18" width="141.7109375" customWidth="1"/>
-    <col min="19" max="19" width="81.7109375" customWidth="1"/>
-    <col min="20" max="20" width="58.7109375" customWidth="1"/>
-    <col min="21" max="21" width="141.7109375" customWidth="1"/>
-    <col min="22" max="22" width="57.7109375" customWidth="1"/>
-    <col min="23" max="23" width="76.7109375" customWidth="1"/>
-    <col min="24" max="24" width="80.7109375" customWidth="1"/>
-    <col min="25" max="25" width="62.7109375" customWidth="1"/>
-    <col min="26" max="26" width="121.7109375" customWidth="1"/>
-    <col min="27" max="27" width="97.7109375" customWidth="1"/>
-    <col min="28" max="28" width="86.7109375" customWidth="1"/>
-    <col min="29" max="29" width="99.7109375" customWidth="1"/>
-    <col min="30" max="30" width="101.7109375" customWidth="1"/>
-    <col min="31" max="31" width="69.7109375" customWidth="1"/>
-    <col min="32" max="32" width="69.7109375" customWidth="1"/>
-    <col min="33" max="33" width="71.7109375" customWidth="1"/>
-    <col min="34" max="34" width="141.7109375" customWidth="1"/>
-    <col min="35" max="35" width="158.7109375" customWidth="1"/>
-    <col min="36" max="36" width="136.7109375" customWidth="1"/>
-    <col min="37" max="37" width="90.7109375" customWidth="1"/>
-    <col min="38" max="38" width="57.7109375" customWidth="1"/>
-    <col min="39" max="39" width="55.7109375" customWidth="1"/>
-    <col min="40" max="40" width="53.7109375" customWidth="1"/>
-    <col min="41" max="41" width="111.7109375" customWidth="1"/>
-    <col min="42" max="42" width="91.7109375" customWidth="1"/>
-    <col min="43" max="43" width="72.7109375" customWidth="1"/>
-    <col min="44" max="44" width="71.7109375" customWidth="1"/>
-    <col min="45" max="45" width="32.7109375" customWidth="1"/>
-    <col min="46" max="46" width="67.7109375" customWidth="1"/>
-    <col min="47" max="47" width="41.7109375" customWidth="1"/>
-    <col min="48" max="48" width="84.7109375" customWidth="1"/>
-    <col min="49" max="49" width="104.7109375" customWidth="1"/>
-    <col min="50" max="50" width="104.7109375" customWidth="1"/>
-    <col min="51" max="51" width="104.7109375" customWidth="1"/>
-    <col min="52" max="52" width="88.7109375" customWidth="1"/>
-    <col min="53" max="53" width="69.7109375" customWidth="1"/>
-    <col min="54" max="54" width="58.7109375" customWidth="1"/>
-    <col min="55" max="55" width="141.7109375" customWidth="1"/>
-    <col min="56" max="56" width="67.7109375" customWidth="1"/>
-    <col min="57" max="57" width="58.7109375" customWidth="1"/>
-    <col min="58" max="58" width="141.7109375" customWidth="1"/>
-    <col min="59" max="59" width="79.7109375" customWidth="1"/>
-    <col min="60" max="60" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="78.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="62.6640625" customWidth="1"/>
+    <col min="11" max="11" width="58.6640625" customWidth="1"/>
+    <col min="12" max="12" width="141.6640625" customWidth="1"/>
+    <col min="13" max="13" width="69.6640625" customWidth="1"/>
+    <col min="14" max="14" width="58.6640625" customWidth="1"/>
+    <col min="15" max="15" width="141.6640625" customWidth="1"/>
+    <col min="16" max="16" width="96.6640625" customWidth="1"/>
+    <col min="17" max="17" width="58.6640625" customWidth="1"/>
+    <col min="18" max="18" width="141.6640625" customWidth="1"/>
+    <col min="19" max="19" width="81.6640625" customWidth="1"/>
+    <col min="20" max="20" width="58.6640625" customWidth="1"/>
+    <col min="21" max="21" width="141.6640625" customWidth="1"/>
+    <col min="22" max="22" width="57.6640625" customWidth="1"/>
+    <col min="23" max="23" width="76.6640625" customWidth="1"/>
+    <col min="24" max="24" width="80.6640625" customWidth="1"/>
+    <col min="25" max="25" width="62.6640625" customWidth="1"/>
+    <col min="26" max="26" width="121.6640625" customWidth="1"/>
+    <col min="27" max="27" width="97.6640625" customWidth="1"/>
+    <col min="28" max="28" width="86.6640625" customWidth="1"/>
+    <col min="29" max="29" width="99.6640625" customWidth="1"/>
+    <col min="30" max="30" width="101.6640625" customWidth="1"/>
+    <col min="31" max="32" width="69.6640625" customWidth="1"/>
+    <col min="33" max="33" width="71.6640625" customWidth="1"/>
+    <col min="34" max="34" width="141.6640625" customWidth="1"/>
+    <col min="35" max="35" width="158.6640625" customWidth="1"/>
+    <col min="36" max="36" width="136.6640625" customWidth="1"/>
+    <col min="37" max="37" width="90.6640625" customWidth="1"/>
+    <col min="38" max="38" width="57.6640625" customWidth="1"/>
+    <col min="39" max="39" width="55.6640625" customWidth="1"/>
+    <col min="40" max="40" width="53.6640625" customWidth="1"/>
+    <col min="41" max="41" width="111.6640625" customWidth="1"/>
+    <col min="42" max="42" width="91.6640625" customWidth="1"/>
+    <col min="43" max="43" width="72.6640625" customWidth="1"/>
+    <col min="44" max="44" width="71.6640625" customWidth="1"/>
+    <col min="45" max="45" width="32.6640625" customWidth="1"/>
+    <col min="46" max="46" width="67.6640625" customWidth="1"/>
+    <col min="47" max="47" width="41.6640625" customWidth="1"/>
+    <col min="48" max="48" width="84.6640625" customWidth="1"/>
+    <col min="49" max="51" width="104.6640625" customWidth="1"/>
+    <col min="52" max="52" width="88.6640625" customWidth="1"/>
+    <col min="53" max="53" width="69.6640625" customWidth="1"/>
+    <col min="54" max="54" width="58.6640625" customWidth="1"/>
+    <col min="55" max="55" width="141.6640625" customWidth="1"/>
+    <col min="56" max="56" width="67.6640625" customWidth="1"/>
+    <col min="57" max="57" width="58.6640625" customWidth="1"/>
+    <col min="58" max="58" width="141.6640625" customWidth="1"/>
+    <col min="59" max="59" width="79.6640625" customWidth="1"/>
+    <col min="60" max="60" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -9190,7 +9234,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:60">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -9372,7 +9416,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:60">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -9533,7 +9577,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:60">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>188</v>
       </c>
@@ -9715,12 +9759,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:60">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:60">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>213</v>
       </c>
@@ -9737,7 +9781,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="7" spans="1:60">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>217</v>
       </c>
@@ -9754,7 +9798,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="8" spans="1:60">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>221</v>
       </c>
@@ -9771,7 +9815,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="9" spans="1:60">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>225</v>
       </c>
@@ -9788,7 +9832,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="10" spans="1:60">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>229</v>
       </c>
@@ -9805,7 +9849,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="11" spans="1:60">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>233</v>
       </c>
@@ -9822,7 +9866,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="12" spans="1:60">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>237</v>
       </c>
